--- a/investments.xlsx
+++ b/investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\stock_journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C11A15-CFFF-4D40-A094-809461DE0F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E94E7-9536-41E2-A9B1-FE9DA43C05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17715" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="3390" windowWidth="21405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>stock</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>23/6/2024</t>
+  </si>
+  <si>
+    <t>23/11/2021</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A5:H5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +496,9 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
@@ -504,6 +510,17 @@
       </c>
       <c r="F2" s="2">
         <v>331.89</v>
+      </c>
+      <c r="G2" s="2">
+        <v>332.31</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(1+I2)*E2 -E2</f>
+        <v>4.2000000000002728</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(G2 -F2)/F2</f>
+        <v>1.2654795263491395E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\stock_journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E94E7-9536-41E2-A9B1-FE9DA43C05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFFBAD-2715-4D91-BC3F-99D8DD21B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="3390" windowWidth="21405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="4215" windowWidth="21405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>stock</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>23/11/2021</t>
+  </si>
+  <si>
+    <t>Activision Blizzard</t>
+  </si>
+  <si>
+    <t>ATVI</t>
   </si>
 </sst>
 </file>
@@ -132,11 +138,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -164,8 +173,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D1F8B31-3FDA-4128-9E90-787B32745CE5}" name="Table1" displayName="Table1" ref="A1:I12" totalsRowShown="0">
-  <autoFilter ref="A1:I12" xr:uid="{4D1F8B31-3FDA-4128-9E90-787B32745CE5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D1F8B31-3FDA-4128-9E90-787B32745CE5}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{4D1F8B31-3FDA-4128-9E90-787B32745CE5}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{760083B0-21AC-420E-81F7-CAA636D86707}" name="date in" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{75A00969-4119-4764-BE45-739E5B52C708}" name="date out" dataDxfId="0"/>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +594,23 @@
         <v>1.6446832763393593E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3861.24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>83.94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\stock_journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFFBAD-2715-4D91-BC3F-99D8DD21B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D43CA8F-C997-49F5-A003-BBE734D4BEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="4215" windowWidth="21405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\stock_journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D43CA8F-C997-49F5-A003-BBE734D4BEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD8CEBA-2DDD-4921-BDF3-6D257D806688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="4215" windowWidth="21405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>stock</t>
   </si>
@@ -73,9 +82,6 @@
   </si>
   <si>
     <t>23/6/2023</t>
-  </si>
-  <si>
-    <t>23/6/2024</t>
   </si>
   <si>
     <t>23/11/2021</t>
@@ -91,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,17 +149,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -176,15 +186,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D1F8B31-3FDA-4128-9E90-787B32745CE5}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0">
   <autoFilter ref="A1:I11" xr:uid="{4D1F8B31-3FDA-4128-9E90-787B32745CE5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{760083B0-21AC-420E-81F7-CAA636D86707}" name="date in" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{75A00969-4119-4764-BE45-739E5B52C708}" name="date out" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{760083B0-21AC-420E-81F7-CAA636D86707}" name="date in" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{75A00969-4119-4764-BE45-739E5B52C708}" name="date out" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{88251C14-4094-4138-B415-5535A9E55236}" name="stock"/>
     <tableColumn id="9" xr3:uid="{F972478C-D324-4BFC-A8E8-C742202A51AA}" name="key"/>
     <tableColumn id="4" xr3:uid="{4E053BF1-03A0-46B5-98FE-646C7C6C20DA}" name="money" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{B4B1B82A-3888-4972-84D3-4142F2CC52D8}" name="stock price  in " dataCellStyle="Currency"/>
     <tableColumn id="6" xr3:uid="{9C1A271B-B414-4345-BA99-932EDEDF8919}" name="stock price out" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{ED670F81-8B61-45B6-BB07-1BF6475A41C6}" name="profit/loss" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{0F32ECE0-DF7A-48A8-A79B-D91F7A26D440}" name="profit/loss(%)" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{0F32ECE0-DF7A-48A8-A79B-D91F7A26D440}" name="profit/loss(%)" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,7 +466,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +479,7 @@
     <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -497,7 +507,7 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -506,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -527,7 +537,7 @@
         <f>(1+I2)*E2 -E2</f>
         <v>4.2000000000002728</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <f>(G2 -F2)/F2</f>
         <v>1.2654795263491395E-3</v>
       </c>
@@ -558,7 +568,7 @@
         <f>(1+I3)*E3 -E3</f>
         <v>508.33448942172049</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <f>(G3 -F3)/F3</f>
         <v>0.32059238363892789</v>
       </c>
@@ -568,7 +578,7 @@
         <v>45052</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -589,7 +599,7 @@
         <f>(1+I4)*E4 -E4</f>
         <v>30.299999999999955</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <f>(G4 -F4)/F4</f>
         <v>1.6446832763393593E-2</v>
       </c>
@@ -598,17 +608,31 @@
       <c r="A5" s="1">
         <v>45107</v>
       </c>
+      <c r="B5" s="1">
+        <v>45127</v>
+      </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>3861.24</v>
       </c>
       <c r="F5" s="2">
         <v>83.94</v>
+      </c>
+      <c r="G5" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(1+I5)*E5 -E5</f>
+        <v>375.35999999999967</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(G5 -F5)/F5</f>
+        <v>9.721229449606858E-2</v>
       </c>
     </row>
   </sheetData>
